--- a/Analysis/Output/Reg2s_Rob.xlsx
+++ b/Analysis/Output/Reg2s_Rob.xlsx
@@ -677,76 +677,76 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.23358663061887</v>
+        <v>-5.8247149282878</v>
       </c>
       <c r="C2" t="n">
-        <v>14.1261666758515</v>
+        <v>14.3170224031493</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.299698193272499</v>
+        <v>-0.406838430804336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.769384810558324</v>
+        <v>0.691035229236975</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.00386272196793</v>
+        <v>-6.77822766096045</v>
       </c>
       <c r="G2" t="n">
-        <v>17.1680603146919</v>
+        <v>17.1872188841083</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.407958883740304</v>
+        <v>-0.39437605971422</v>
       </c>
       <c r="I2" t="n">
-        <v>0.690952014131846</v>
+        <v>0.700677542957408</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5661917286159</v>
+        <v>12.560879405376</v>
       </c>
       <c r="K2" t="n">
-        <v>0.107755343352916</v>
+        <v>0.108229728091123</v>
       </c>
       <c r="L2" t="n">
-        <v>116.617806018766</v>
+        <v>116.057571490898</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00000000000019877072458575</v>
+        <v>0.000000000000157542293495218</v>
       </c>
       <c r="N2" t="n">
-        <v>12.9847091752487</v>
+        <v>12.9700432204871</v>
       </c>
       <c r="O2" t="n">
-        <v>0.133125428564127</v>
+        <v>0.126756380585497</v>
       </c>
       <c r="P2" t="n">
-        <v>97.5374075058386</v>
+        <v>102.322606251279</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00000000000000000000000361836107527381</v>
+        <v>0.00000000000000000000000126321232334932</v>
       </c>
       <c r="R2" t="n">
-        <v>13.4098524522231</v>
+        <v>13.4075151575492</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0481375585706068</v>
+        <v>0.0486154986536355</v>
       </c>
       <c r="T2" t="n">
-        <v>278.573588906756</v>
+        <v>275.786848409639</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0000000000000000000000000000409928042704704</v>
+        <v>0.0000000000000000000000000000476306318542484</v>
       </c>
       <c r="V2" t="n">
-        <v>13.5241069373508</v>
+        <v>13.5188744266351</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0601976722525338</v>
+        <v>0.0602542226915907</v>
       </c>
       <c r="X2" t="n">
-        <v>224.661626127604</v>
+        <v>224.363933725126</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.000000000000000000000000000303139240937732</v>
+        <v>0.000000000000000000000000000306971284999252</v>
       </c>
     </row>
     <row r="3">
@@ -754,76 +754,76 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0205467047396312</v>
+        <v>0.0184235660613105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0100308392950955</v>
+        <v>0.011140273702873</v>
       </c>
       <c r="D3" t="n">
-        <v>2.0483534961703</v>
+        <v>1.65378037853407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0584926916604535</v>
+        <v>0.118997870577675</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0173431980620234</v>
+        <v>0.0165643124624637</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0112855590574172</v>
+        <v>0.0115667829539916</v>
       </c>
       <c r="H3" t="n">
-        <v>1.53676020601079</v>
+        <v>1.43205872612553</v>
       </c>
       <c r="I3" t="n">
-        <v>0.145225542655033</v>
+        <v>0.172690068273722</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0217352835941571</v>
+        <v>0.0208611678885488</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0117814295829383</v>
+        <v>0.0121320784065653</v>
       </c>
       <c r="L3" t="n">
-        <v>1.84487658659301</v>
+        <v>1.71950486878322</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0849375917836164</v>
+        <v>0.106134941477079</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0162165561468468</v>
+        <v>0.0148906335520594</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0120960060137859</v>
+        <v>0.0125377084648194</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34065377682226</v>
+        <v>1.18766787358649</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.200034493101743</v>
+        <v>0.253481927368807</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0390193067790991</v>
+        <v>0.0376992230617386</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0242759702519133</v>
+        <v>0.0245304195100736</v>
       </c>
       <c r="T3" t="n">
-        <v>1.60732223570029</v>
+        <v>1.53683564385261</v>
       </c>
       <c r="U3" t="n">
-        <v>0.128879524056075</v>
+        <v>0.145216783890227</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0723665524280642</v>
+        <v>0.0793657814536189</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0265748223869755</v>
+        <v>0.0239364393551958</v>
       </c>
       <c r="X3" t="n">
-        <v>2.72312459418474</v>
+        <v>3.31568869855287</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0148639730870476</v>
+        <v>0.00428512670172188</v>
       </c>
     </row>
     <row r="4">
@@ -831,64 +831,64 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0000712365482721219</v>
+        <v>0.00010524037515345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0000713799338210845</v>
+        <v>0.0000725543322433429</v>
       </c>
       <c r="D4" t="n">
-        <v>0.997991234492847</v>
+        <v>1.45050435858855</v>
       </c>
       <c r="E4" t="n">
-        <v>0.340600412382455</v>
+        <v>0.175751200660615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000123955138145333</v>
+        <v>0.000145773567874724</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0000719141461371076</v>
+        <v>0.0000772278008418024</v>
       </c>
       <c r="H4" t="n">
-        <v>1.72365445192114</v>
+        <v>1.88757890663409</v>
       </c>
       <c r="I4" t="n">
-        <v>0.113658900942006</v>
+        <v>0.0864049339541426</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000167942217210494</v>
+        <v>0.00019495048681685</v>
       </c>
       <c r="K4" t="n">
-        <v>0.000113005673931228</v>
+        <v>0.00011696301854198</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48613968987698</v>
+        <v>1.66677031122345</v>
       </c>
       <c r="M4" t="n">
-        <v>0.166183284077204</v>
+        <v>0.124371406377972</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000142449588587065</v>
+        <v>0.000178599771047061</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000155895567528646</v>
+        <v>0.000156613896993262</v>
       </c>
       <c r="P4" t="n">
-        <v>0.913750088249879</v>
+        <v>1.14038265106669</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.381276214100987</v>
+        <v>0.279108843806418</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00108284755042353</v>
+        <v>0.00111210185542342</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000263729392062554</v>
+        <v>0.000262888758091524</v>
       </c>
       <c r="T4" t="n">
-        <v>4.10590394174451</v>
+        <v>4.23031347364136</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00193616420905058</v>
+        <v>0.00156817030100546</v>
       </c>
       <c r="V4"/>
       <c r="W4"/>
@@ -900,64 +900,64 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0474862739654894</v>
+        <v>0.0348435761308152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0162086638102573</v>
+        <v>0.0111457845566277</v>
       </c>
       <c r="D5" t="n">
-        <v>2.92968467489829</v>
+        <v>3.12616630563668</v>
       </c>
       <c r="E5" t="n">
-        <v>0.010292700695341</v>
+        <v>0.00688582779501879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0457844980866001</v>
+        <v>0.0388671226089921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0150558755325622</v>
+        <v>0.0113105091375522</v>
       </c>
       <c r="H5" t="n">
-        <v>3.04097214323933</v>
+        <v>3.4363725042181</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0082077402820781</v>
+        <v>0.00363920748337796</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0395571825966286</v>
+        <v>0.0312848756291325</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0183078369262321</v>
+        <v>0.0139198119934989</v>
       </c>
       <c r="L5" t="n">
-        <v>2.16066937650891</v>
+        <v>2.24750705280674</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0472066957409956</v>
+        <v>0.0399601973859502</v>
       </c>
       <c r="N5" t="n">
-        <v>0.044747223804977</v>
+        <v>0.0335539207169659</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0224557615629473</v>
+        <v>0.0156696369555417</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99268342245008</v>
+        <v>2.14133363856264</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0647004367860742</v>
+        <v>0.048958593866375</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0859353505232779</v>
+        <v>0.0673315457662609</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0303016428573403</v>
+        <v>0.0155630797931369</v>
       </c>
       <c r="T5" t="n">
-        <v>2.83599641537128</v>
+        <v>4.32636384708079</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0124697635715877</v>
+        <v>0.000590979573726712</v>
       </c>
       <c r="V5"/>
       <c r="W5"/>
@@ -969,64 +969,64 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0522283225975422</v>
+        <v>0.0425495439358445</v>
       </c>
       <c r="C6" t="n">
-        <v>0.014806677707703</v>
+        <v>0.0166840733449311</v>
       </c>
       <c r="D6" t="n">
-        <v>3.52734918856045</v>
+        <v>2.55030909156076</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00304698820131754</v>
+        <v>0.0221296846947093</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0518083292770997</v>
+        <v>0.0508034648033069</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0153466000000519</v>
+        <v>0.014660903965056</v>
       </c>
       <c r="H6" t="n">
-        <v>3.37588321041302</v>
+        <v>3.46523413047355</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00415664723683891</v>
+        <v>0.00346022381147689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.042797388077572</v>
+        <v>0.0418095444581613</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0172604840659538</v>
+        <v>0.0166215787284148</v>
       </c>
       <c r="L6" t="n">
-        <v>2.47950103334527</v>
+        <v>2.51537745850142</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0255035385137332</v>
+        <v>0.0237600260946259</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0461454274523876</v>
+        <v>0.0456286219673965</v>
       </c>
       <c r="O6" t="n">
-        <v>0.019410146578566</v>
+        <v>0.0190510625530982</v>
       </c>
       <c r="P6" t="n">
-        <v>2.37738686133079</v>
+        <v>2.39506966292419</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0311730298975104</v>
+        <v>0.0301155720310971</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0783301281577271</v>
+        <v>0.0772280967180565</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0167306161652761</v>
+        <v>0.0160884233301552</v>
       </c>
       <c r="T6" t="n">
-        <v>4.68184359643007</v>
+        <v>4.80022778697679</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000296205227195714</v>
+        <v>0.00023471583302433</v>
       </c>
       <c r="V6"/>
       <c r="W6"/>
@@ -1038,64 +1038,64 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0390486889515358</v>
+        <v>0.0328778108518981</v>
       </c>
       <c r="C7" t="n">
-        <v>0.015829275318796</v>
+        <v>0.0177410401712181</v>
       </c>
       <c r="D7" t="n">
-        <v>2.46686523325352</v>
+        <v>1.85320649379042</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0256727774168989</v>
+        <v>0.0828637734398298</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0367663625882287</v>
+        <v>0.0382211942274417</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0143630615877415</v>
+        <v>0.0149972292175555</v>
       </c>
       <c r="H7" t="n">
-        <v>2.55978590383598</v>
+        <v>2.5485503804063</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0213235705816624</v>
+        <v>0.0218102994833571</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0275340484444377</v>
+        <v>0.0292068208892011</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0152738981493126</v>
+        <v>0.0160930849599316</v>
       </c>
       <c r="L7" t="n">
-        <v>1.80268639840817</v>
+        <v>1.81486774983913</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0908486762211283</v>
+        <v>0.0888805448670006</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0370296601853124</v>
+        <v>0.0393131106243669</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0177591367639912</v>
+        <v>0.0190882169243255</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08510473664432</v>
+        <v>2.05954860950199</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0539304992289149</v>
+        <v>0.0565977508924102</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0685925256094943</v>
+        <v>0.0711513049424382</v>
       </c>
       <c r="S7" t="n">
-        <v>0.012932211480421</v>
+        <v>0.0144136203890769</v>
       </c>
       <c r="T7" t="n">
-        <v>5.30400587040673</v>
+        <v>4.9363937041355</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0000788255573220545</v>
+        <v>0.000162295033362885</v>
       </c>
       <c r="V7"/>
       <c r="W7"/>
@@ -1107,64 +1107,64 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0174309947251243</v>
+        <v>0.0128032925231662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0180826444739375</v>
+        <v>0.0234789357810852</v>
       </c>
       <c r="D8" t="n">
-        <v>0.963962696399167</v>
+        <v>0.545309746682839</v>
       </c>
       <c r="E8" t="n">
-        <v>0.350738263933248</v>
+        <v>0.59375229571626</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0203274669894527</v>
+        <v>0.0220143396979452</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0188485634484995</v>
+        <v>0.0197300253212228</v>
       </c>
       <c r="H8" t="n">
-        <v>1.07846240086116</v>
+        <v>1.11577858312555</v>
       </c>
       <c r="I8" t="n">
-        <v>0.298298226344432</v>
+        <v>0.282525885115434</v>
       </c>
       <c r="J8" t="n">
-        <v>0.010673493914038</v>
+        <v>0.0125083796406478</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0185201105358079</v>
+        <v>0.0196706685439126</v>
       </c>
       <c r="L8" t="n">
-        <v>0.576319125817374</v>
+        <v>0.635889909523115</v>
       </c>
       <c r="M8" t="n">
-        <v>0.573164436204002</v>
+        <v>0.534678535166805</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0238249599693253</v>
+        <v>0.0264518282225683</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0247105545203139</v>
+        <v>0.0264187262324018</v>
       </c>
       <c r="P8" t="n">
-        <v>0.964161283784202</v>
+        <v>1.00125297449526</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.350645417711676</v>
+        <v>0.332997150796834</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0637923650652112</v>
+        <v>0.0665973510369997</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0321423359826835</v>
+        <v>0.0330941260024397</v>
       </c>
       <c r="T8" t="n">
-        <v>1.98468353698931</v>
+        <v>2.01236168110589</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0662865242821074</v>
+        <v>0.0630005247558887</v>
       </c>
       <c r="V8"/>
       <c r="W8"/>
@@ -1176,64 +1176,64 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0854272811522777</v>
+        <v>0.080383264414336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0198741419785732</v>
+        <v>0.0263803262604357</v>
       </c>
       <c r="D9" t="n">
-        <v>4.29841354884045</v>
+        <v>3.04709136728502</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000621922517551853</v>
+        <v>0.00807656712731205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0876518443923195</v>
+        <v>0.091115845030034</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0206851538695815</v>
+        <v>0.0215933598113075</v>
       </c>
       <c r="H9" t="n">
-        <v>4.23742771965626</v>
+        <v>4.21962333913042</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00070331461100815</v>
+        <v>0.000729677342378604</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0768793076155692</v>
+        <v>0.0807708125164583</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0198322304919859</v>
+        <v>0.0212767305668269</v>
       </c>
       <c r="L9" t="n">
-        <v>3.87648316444466</v>
+        <v>3.79620413309131</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00146818537800511</v>
+        <v>0.00173205638073489</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0859480187588565</v>
+        <v>0.0907186651610932</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0277612316579635</v>
+        <v>0.0300944642890274</v>
       </c>
       <c r="P9" t="n">
-        <v>3.09597282346087</v>
+        <v>3.01446353355324</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00731693281985308</v>
+        <v>0.00864801584526214</v>
       </c>
       <c r="R9" t="n">
-        <v>0.112475312171172</v>
+        <v>0.117666500286746</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0520527903954643</v>
+        <v>0.0523836218994938</v>
       </c>
       <c r="T9" t="n">
-        <v>2.16079313551984</v>
+        <v>2.24624598338214</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0471803876762114</v>
+        <v>0.0400720259140853</v>
       </c>
       <c r="V9"/>
       <c r="W9"/>
@@ -1245,64 +1245,64 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>0.12520417492864</v>
+        <v>0.119490239414695</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0238948022873496</v>
+        <v>0.029373481639749</v>
       </c>
       <c r="D10" t="n">
-        <v>5.23980794747673</v>
+        <v>4.0679630995121</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000958510308103089</v>
+        <v>0.000984108218542663</v>
       </c>
       <c r="F10" t="n">
-        <v>0.126195404294772</v>
+        <v>0.128970731110046</v>
       </c>
       <c r="G10" t="n">
-        <v>0.024417718015582</v>
+        <v>0.0250520835218218</v>
       </c>
       <c r="H10" t="n">
-        <v>5.16818992725863</v>
+        <v>5.14810398894389</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000109953692034687</v>
+        <v>0.000114476989694538</v>
       </c>
       <c r="J10" t="n">
-        <v>0.103618728879821</v>
+        <v>0.106813189913608</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0239173302413387</v>
+        <v>0.0252320552993904</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33237020328993</v>
+        <v>4.23323382285822</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000575876423337348</v>
+        <v>0.000704731153899889</v>
       </c>
       <c r="N10" t="n">
-        <v>0.115477002754904</v>
+        <v>0.119403870036219</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0328284450528225</v>
+        <v>0.0347539219457436</v>
       </c>
       <c r="P10" t="n">
-        <v>3.51758977828821</v>
+        <v>3.43569483244588</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00305859332287966</v>
+        <v>0.00362366676374271</v>
       </c>
       <c r="R10" t="n">
-        <v>0.123991102902307</v>
+        <v>0.128232774092908</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0545131929567791</v>
+        <v>0.0547831552329123</v>
       </c>
       <c r="T10" t="n">
-        <v>2.27451551041257</v>
+        <v>2.34073363514246</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0378929537615311</v>
+        <v>0.0333321394426924</v>
       </c>
       <c r="V10"/>
       <c r="W10"/>
@@ -1314,64 +1314,64 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0848118379693159</v>
+        <v>0.0808663054811024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0299754812457546</v>
+        <v>0.0370339449756134</v>
       </c>
       <c r="D11" t="n">
-        <v>2.82937368958264</v>
+        <v>2.18357254498143</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0118007513121226</v>
+        <v>0.0437037628932784</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0785178182361246</v>
+        <v>0.0823554225229931</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0328273942407596</v>
+        <v>0.0342276171877639</v>
       </c>
       <c r="H11" t="n">
-        <v>2.39183828177974</v>
+        <v>2.40611030768553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0289562738403476</v>
+        <v>0.0281283658157955</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0439867925681152</v>
+        <v>0.0483739477476084</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0397794308049543</v>
+        <v>0.04113811076508</v>
       </c>
       <c r="L11" t="n">
-        <v>1.10576726911429</v>
+        <v>1.17589132918254</v>
       </c>
       <c r="M11" t="n">
-        <v>0.284654628933033</v>
+        <v>0.25627671088553</v>
       </c>
       <c r="N11" t="n">
-        <v>0.116187985750572</v>
+        <v>0.116415092903591</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0465884688906079</v>
+        <v>0.0465518319210378</v>
       </c>
       <c r="P11" t="n">
-        <v>2.49392153288805</v>
+        <v>2.50076287225509</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0235911240497503</v>
+        <v>0.023256354419546</v>
       </c>
       <c r="R11" t="n">
-        <v>0.440046277923503</v>
+        <v>0.442252569345002</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0602307109936299</v>
+        <v>0.0607209669426589</v>
       </c>
       <c r="T11" t="n">
-        <v>7.30601167849476</v>
+        <v>7.28335847751961</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00000146581081319948</v>
+        <v>0.00000151807112591651</v>
       </c>
       <c r="V11"/>
       <c r="W11"/>
@@ -1383,52 +1383,52 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>0.026116028369515</v>
+        <v>0.0249792342488939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0225037542950563</v>
+        <v>0.0227554931286625</v>
       </c>
       <c r="D12" t="n">
-        <v>1.16051873065697</v>
+        <v>1.09772326653868</v>
       </c>
       <c r="E12" t="n">
-        <v>0.260479808769893</v>
+        <v>0.286294429608753</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0143426555795199</v>
+        <v>0.0141705951065409</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0244133394408285</v>
+        <v>0.0244573599551447</v>
       </c>
       <c r="H12" t="n">
-        <v>0.587492572013046</v>
+        <v>0.579400030605514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.563948447881053</v>
+        <v>0.569282414391197</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0121027182860137</v>
+        <v>-0.0123024717404969</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0237434093042925</v>
+        <v>0.0237652318748445</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.509729589837195</v>
+        <v>-0.517666808608717</v>
       </c>
       <c r="M12" t="n">
-        <v>0.616260905324769</v>
+        <v>0.610818961801791</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0320990002567938</v>
+        <v>0.0327024964726892</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0184266836018038</v>
+        <v>0.0185145387312341</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74198466476363</v>
+        <v>1.76631440552824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0984401326876182</v>
+        <v>0.0941589511948885</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -1444,52 +1444,52 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0510645091791331</v>
+        <v>0.0537415865778203</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0146183224750441</v>
+        <v>0.0146484004409232</v>
       </c>
       <c r="D13" t="n">
-        <v>3.49318529990761</v>
+        <v>3.66876825866137</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00252957764748037</v>
+        <v>0.00170974496050321</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0608051533359997</v>
+        <v>0.0601655301544533</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0170025523551161</v>
+        <v>0.0171847280247423</v>
       </c>
       <c r="H13" t="n">
-        <v>3.57623679468943</v>
+        <v>3.50110458936725</v>
       </c>
       <c r="I13" t="n">
-        <v>0.00209665488307539</v>
+        <v>0.00248874679001274</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0907789140234339</v>
+        <v>0.0905330419484441</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0245035471734291</v>
+        <v>0.0246517126328479</v>
       </c>
       <c r="L13" t="n">
-        <v>3.70472541713764</v>
+        <v>3.6724848815498</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0015835014005021</v>
+        <v>0.00170774595674166</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0977308021105444</v>
+        <v>0.0971638202630247</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0262027319944453</v>
+        <v>0.0265888802874225</v>
       </c>
       <c r="P13" t="n">
-        <v>3.72979436385726</v>
+        <v>3.65430282180731</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00147436260445042</v>
+        <v>0.00175279298698715</v>
       </c>
       <c r="R13"/>
       <c r="S13"/>
@@ -1505,52 +1505,52 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>0.057527571525036</v>
+        <v>0.0584810147844914</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0107845422202394</v>
+        <v>0.00953282454732904</v>
       </c>
       <c r="D14" t="n">
-        <v>5.33426179342819</v>
+        <v>6.13469958396297</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0000667618866132542</v>
+        <v>0.0000143857496844711</v>
       </c>
       <c r="F14" t="n">
-        <v>0.060179202369485</v>
+        <v>0.0587088295231157</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0107564474757972</v>
+        <v>0.0097737869511503</v>
       </c>
       <c r="H14" t="n">
-        <v>5.59470982449296</v>
+        <v>6.00676378731645</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0000399778648367687</v>
+        <v>0.0000184086792331917</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0508342496433129</v>
+        <v>0.0496888490527145</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0139107797046509</v>
+        <v>0.0134338976528695</v>
       </c>
       <c r="L14" t="n">
-        <v>3.65430628064055</v>
+        <v>3.69876638460922</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0021442243355042</v>
+        <v>0.00196256123746919</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0674690728632141</v>
+        <v>0.0671237856922173</v>
       </c>
       <c r="O14" t="n">
-        <v>0.017848218819479</v>
+        <v>0.017988987353885</v>
       </c>
       <c r="P14" t="n">
-        <v>3.78015719919236</v>
+        <v>3.73138211572099</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00166814910856298</v>
+        <v>0.00185619339627581</v>
       </c>
       <c r="R14"/>
       <c r="S14"/>
@@ -1566,52 +1566,52 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.103240045817467</v>
+        <v>-0.100391732854145</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0315102997917065</v>
+        <v>0.0296096087575088</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.27639046597202</v>
+        <v>-3.39051196779783</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00504285346788305</v>
+        <v>0.00400366332627309</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.107587432234882</v>
+        <v>-0.105717529704408</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0306114369400808</v>
+        <v>0.0297544130519969</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.51461554860933</v>
+        <v>-3.55300336523739</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00312260314894759</v>
+        <v>0.00289091582387647</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.115764449801413</v>
+        <v>-0.113563515145668</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0347089751371916</v>
+        <v>0.0336837164134808</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.33528862041704</v>
+        <v>-3.37146631184136</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00445810962398999</v>
+        <v>0.00414481089215795</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.192928247162416</v>
+        <v>-0.189329348767302</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0481564141658023</v>
+        <v>0.0458720525212922</v>
       </c>
       <c r="P15" t="n">
-        <v>-4.00628349316386</v>
+        <v>-4.1273354550556</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00104213276561809</v>
+        <v>0.000810087814164884</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1627,52 +1627,52 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0644331146112895</v>
+        <v>-0.0683043295252697</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0118865802848333</v>
+        <v>0.0108171873360851</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.42066036381406</v>
+        <v>-6.31442605208594</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000161424281625265</v>
+        <v>0.0000405521819387169</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0707445837202552</v>
+        <v>-0.0721799613511764</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0136795510314418</v>
+        <v>0.0136798160148092</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.17155742594563</v>
+        <v>-5.276383927462</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000239045046983989</v>
+        <v>0.000201187304688376</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0458597060772813</v>
+        <v>-0.0475684239233929</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0136959521294383</v>
+        <v>0.01355040163718</v>
       </c>
       <c r="L16" t="n">
-        <v>-3.34841314016496</v>
+        <v>-3.5104807368125</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00585229684963031</v>
+        <v>0.00434104559855776</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0837000289118361</v>
+        <v>-0.089582639154158</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0592482617906358</v>
+        <v>0.058465668461721</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.41270016000815</v>
+        <v>-1.53222637337688</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.178463595379476</v>
+        <v>0.14661159688113</v>
       </c>
       <c r="R16"/>
       <c r="S16"/>
@@ -1688,52 +1688,52 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>0.000211902851444162</v>
+        <v>0.000210308295272032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0000177845418578252</v>
+        <v>0.0000175536726668886</v>
       </c>
       <c r="D17" t="n">
-        <v>11.9150019797066</v>
+        <v>11.9808714257692</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00000000476035039809391</v>
+        <v>0.00000000439899917808996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00023330966684177</v>
+        <v>0.000232237467112555</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0000212899924801278</v>
+        <v>0.0000209572564315405</v>
       </c>
       <c r="H17" t="n">
-        <v>10.9586542625387</v>
+        <v>11.0814823434159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0000000159143169793</v>
+        <v>0.0000000134479151975639</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000285427156461526</v>
+        <v>0.000283800500778588</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0000247646574478105</v>
+        <v>0.0000241992576746154</v>
       </c>
       <c r="L17" t="n">
-        <v>11.5255846790145</v>
+        <v>11.7276531617038</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00000000673542105187562</v>
+        <v>0.00000000522256576225549</v>
       </c>
       <c r="N17" t="n">
-        <v>0.000323956528134604</v>
+        <v>0.00032244651434821</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0000190062735079094</v>
+        <v>0.000018574674824369</v>
       </c>
       <c r="P17" t="n">
-        <v>17.0447156829449</v>
+        <v>17.3594702139914</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0000000000246195085500396</v>
+        <v>0.0000000000183721069439545</v>
       </c>
       <c r="R17"/>
       <c r="S17"/>
@@ -1749,52 +1749,52 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0145522767138852</v>
+        <v>-0.0142092025634642</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00502531093113765</v>
+        <v>0.00468718208522641</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.89579628271693</v>
+        <v>-3.03150214886048</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0111372865689655</v>
+        <v>0.00823785790828971</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0147841110668256</v>
+        <v>-0.014359789753984</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00433421148616344</v>
+        <v>0.00416174317579176</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.4110266917114</v>
+        <v>-3.45042669560024</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00387272115182572</v>
+        <v>0.00341917723362288</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0106969093513678</v>
+        <v>-0.0102000492509734</v>
       </c>
       <c r="K18" t="n">
-        <v>0.00517855038033462</v>
+        <v>0.00494152362921783</v>
       </c>
       <c r="L18" t="n">
-        <v>-2.0656184773231</v>
+        <v>-2.06415065804066</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0565865110688769</v>
+        <v>0.0562043682100922</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0166700282659345</v>
+        <v>-0.0159012868876992</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00582444433582502</v>
+        <v>0.00539908433613794</v>
       </c>
       <c r="P18" t="n">
-        <v>-2.86208045004403</v>
+        <v>-2.94518216380996</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0122994249909851</v>
+        <v>0.0100063167255513</v>
       </c>
       <c r="R18"/>
       <c r="S18"/>
@@ -1810,52 +1810,52 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>0.156616334437208</v>
+        <v>0.153183395653443</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0493393031416647</v>
+        <v>0.0458305097436391</v>
       </c>
       <c r="D19" t="n">
-        <v>3.17427131038972</v>
+        <v>3.3423890877562</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00644672364678332</v>
+        <v>0.00453539464218464</v>
       </c>
       <c r="F19" t="n">
-        <v>0.164338221316608</v>
+        <v>0.159329432519212</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0449446674710684</v>
+        <v>0.0428326357508374</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6564564955875</v>
+        <v>3.71981386917327</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00237939765712956</v>
+        <v>0.00205015028425931</v>
       </c>
       <c r="J19" t="n">
-        <v>0.15529211338413</v>
+        <v>0.149566735623255</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0510310113319759</v>
+        <v>0.0482358563262514</v>
       </c>
       <c r="L19" t="n">
-        <v>3.04309300033064</v>
+        <v>3.10073764652659</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00838939264416175</v>
+        <v>0.00739160496022502</v>
       </c>
       <c r="N19" t="n">
-        <v>0.207468920672901</v>
+        <v>0.199284255872885</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0512758644737392</v>
+        <v>0.0469375056631387</v>
       </c>
       <c r="P19" t="n">
-        <v>4.04613208967262</v>
+        <v>4.24573596439294</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.00109453087161441</v>
+        <v>0.000714247004335106</v>
       </c>
       <c r="R19"/>
       <c r="S19"/>
@@ -1871,52 +1871,52 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0374380741163792</v>
+        <v>-0.0381397192298122</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0161732562819317</v>
+        <v>0.015761306841851</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.31481363207012</v>
+        <v>-2.41983229008268</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0432318494712622</v>
+        <v>0.0360898085786036</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0499763818308615</v>
+        <v>-0.0491698855312385</v>
       </c>
       <c r="G20" t="n">
-        <v>0.018323363567848</v>
+        <v>0.0182217522392511</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.72746767512462</v>
+        <v>-2.69841697360601</v>
       </c>
       <c r="I20" t="n">
-        <v>0.021313770558662</v>
+        <v>0.0223461899055611</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.021068197507394</v>
+        <v>-0.0211932910089965</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0372903733907483</v>
+        <v>0.0371642160746143</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.564976845005822</v>
+        <v>-0.570260676733957</v>
       </c>
       <c r="M20" t="n">
-        <v>0.584615286096593</v>
+        <v>0.581122957167458</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00453706283503831</v>
+        <v>0.00482980993526434</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0403466288249351</v>
+        <v>0.0403054680336961</v>
       </c>
       <c r="P20" t="n">
-        <v>0.112452092459192</v>
+        <v>0.119830141439532</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.912706848774261</v>
+        <v>0.907001328170302</v>
       </c>
       <c r="R20"/>
       <c r="S20"/>
@@ -1932,52 +1932,52 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>0.108775517880143</v>
+        <v>0.107003625681054</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0111008718529122</v>
+        <v>0.00984245580516083</v>
       </c>
       <c r="D21" t="n">
-        <v>9.79882655357438</v>
+        <v>10.8716389282589</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0000000339979084860225</v>
+        <v>0.00000000785571575580565</v>
       </c>
       <c r="F21" t="n">
-        <v>0.118015203075706</v>
+        <v>0.117267572087361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0141463937070781</v>
+        <v>0.0141138106426125</v>
       </c>
       <c r="H21" t="n">
-        <v>8.34242320123307</v>
+        <v>8.3087108830344</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000000306898180416866</v>
+        <v>0.000000323415600308188</v>
       </c>
       <c r="J21" t="n">
-        <v>0.151388967368473</v>
+        <v>0.150459932752775</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0172733859576346</v>
+        <v>0.0172584727416505</v>
       </c>
       <c r="L21" t="n">
-        <v>8.76429020574057</v>
+        <v>8.71803287608784</v>
       </c>
       <c r="M21" t="n">
-        <v>0.000000154062723316979</v>
+        <v>0.000000165248355332371</v>
       </c>
       <c r="N21" t="n">
-        <v>0.15090356962694</v>
+        <v>0.150000926438644</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0258163750001956</v>
+        <v>0.0262051551330143</v>
       </c>
       <c r="P21" t="n">
-        <v>5.84526563569813</v>
+        <v>5.72409992145655</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0000238963836521689</v>
+        <v>0.0000301902534546144</v>
       </c>
       <c r="R21"/>
       <c r="S21"/>
@@ -1993,52 +1993,52 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0539836321948211</v>
+        <v>0.0549393783896115</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00492921719818796</v>
+        <v>0.00477377904546259</v>
       </c>
       <c r="D22" t="n">
-        <v>10.9517657721932</v>
+        <v>11.5085716926573</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00000000456391985749082</v>
+        <v>0.00000000218520701475582</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0580708672410085</v>
+        <v>0.0589559624589034</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00666504200576863</v>
+        <v>0.00633930546740103</v>
       </c>
       <c r="H22" t="n">
-        <v>8.71275337661006</v>
+        <v>9.30006650761287</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000000123271444908889</v>
+        <v>0.0000000493016160813383</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0723494614827374</v>
+        <v>0.073359015433885</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0118752333955066</v>
+        <v>0.0116419226256619</v>
       </c>
       <c r="L22" t="n">
-        <v>6.0924664866051</v>
+        <v>6.30128010576036</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0000125945915288501</v>
+        <v>0.00000842347265974575</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0694671938421029</v>
+        <v>0.0710564673722614</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0143357839437809</v>
+        <v>0.0136442949241721</v>
       </c>
       <c r="P22" t="n">
-        <v>4.84571992117941</v>
+        <v>5.20777861862093</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.000156011389765826</v>
+        <v>0.0000736314645760792</v>
       </c>
       <c r="R22"/>
       <c r="S22"/>
@@ -2054,52 +2054,52 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.052543903175742</v>
+        <v>-0.0536962940120698</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00988113838019457</v>
+        <v>0.00986922580440092</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.31759612648066</v>
+        <v>-5.44078077412367</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0000452390884801049</v>
+        <v>0.0000347453270886651</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.054880750007394</v>
+        <v>-0.0549039593959274</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00967647847644077</v>
+        <v>0.00971822108264136</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.67156224663876</v>
+        <v>-5.64958945974141</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0000213327652515585</v>
+        <v>0.0000223374778883745</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0543047798936713</v>
+        <v>-0.0544685616914582</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0157437078457321</v>
+        <v>0.015823049050442</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.44930053490496</v>
+        <v>-3.44235561160298</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00282542832490343</v>
+        <v>0.002869292364151</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0275768367684572</v>
+        <v>-0.0280449898694483</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0156826178337618</v>
+        <v>0.0157819743313352</v>
       </c>
       <c r="P23" t="n">
-        <v>-1.75843325781295</v>
+        <v>-1.77702670658669</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0954701892816175</v>
+        <v>0.0922721925553008</v>
       </c>
       <c r="R23"/>
       <c r="S23"/>
@@ -2115,40 +2115,40 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0247804513436187</v>
+        <v>0.0267473950661548</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0127068005316416</v>
+        <v>0.0121290869942179</v>
       </c>
       <c r="D24" t="n">
-        <v>1.95017237281031</v>
+        <v>2.20522740738076</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0707398712538767</v>
+        <v>0.0440136945101541</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0260879594328385</v>
+        <v>0.0274013673122529</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0138404467288983</v>
+        <v>0.0136130515115439</v>
       </c>
       <c r="H24" t="n">
-        <v>1.88490732588623</v>
+        <v>2.01287472459915</v>
       </c>
       <c r="I24" t="n">
-        <v>0.079624885935384</v>
+        <v>0.0630682730820312</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0487127731685878</v>
+        <v>0.050045035526746</v>
       </c>
       <c r="K24" t="n">
-        <v>0.020793944394735</v>
+        <v>0.0207247972834977</v>
       </c>
       <c r="L24" t="n">
-        <v>2.34264227334001</v>
+        <v>2.4147418593375</v>
       </c>
       <c r="M24" t="n">
-        <v>0.033850705160399</v>
+        <v>0.0294524403119403</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -2168,40 +2168,40 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.06623498361523</v>
+        <v>-0.0727690058715467</v>
       </c>
       <c r="C25" t="n">
-        <v>0.024952739305421</v>
+        <v>0.023544461512789</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.65441732887581</v>
+        <v>-3.09070588987646</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0363590809550143</v>
+        <v>0.0202653094440712</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.0685829660812659</v>
+        <v>-0.068944093898408</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0293783857402297</v>
+        <v>0.0293571531985947</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.33447020158602</v>
+        <v>-2.34845979213367</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0565735295781621</v>
+        <v>0.0554795912753991</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0643184706831413</v>
+        <v>-0.0647711336198183</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0356123595340373</v>
+        <v>0.0356167489704901</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.80607158651387</v>
+        <v>-1.81855827643011</v>
       </c>
       <c r="M25" t="n">
-        <v>0.118942447803958</v>
+        <v>0.116871094765824</v>
       </c>
       <c r="N25"/>
       <c r="O25"/>
@@ -2221,40 +2221,40 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.189631644168315</v>
+        <v>-0.179417719312666</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0417847745849494</v>
+        <v>0.0413535916762189</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.53829525352086</v>
+        <v>-4.3386248216946</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000579898769676778</v>
+        <v>0.000815368565572474</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.183882620231698</v>
+        <v>-0.184610696156454</v>
       </c>
       <c r="G26" t="n">
-        <v>0.042029934293024</v>
+        <v>0.0414953584830741</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.37503944093051</v>
+        <v>-4.44894809697227</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000794546821275675</v>
+        <v>0.000696031197702425</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.142910541476809</v>
+        <v>-0.143463591030625</v>
       </c>
       <c r="K26" t="n">
-        <v>0.049051526250925</v>
+        <v>0.048689810429095</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.91347797713255</v>
+        <v>-2.9464807886148</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0123210446768281</v>
+        <v>0.0115772539691394</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -2274,40 +2274,40 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.143341674493162</v>
+        <v>-0.136801817116175</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0795954021654414</v>
+        <v>0.0782803690864455</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.80087882708629</v>
+        <v>-1.74758778877376</v>
       </c>
       <c r="E27" t="n">
-        <v>0.101466039353466</v>
+        <v>0.110689545488128</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.120886723918541</v>
+        <v>-0.117710952355572</v>
       </c>
       <c r="G27" t="n">
-        <v>0.082794098229964</v>
+        <v>0.0819689646613442</v>
       </c>
       <c r="H27" t="n">
-        <v>-1.46008865973482</v>
+        <v>-1.43604293212555</v>
       </c>
       <c r="I27" t="n">
-        <v>0.174340172171007</v>
+        <v>0.18098866052077</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0796027013613172</v>
+        <v>-0.0755130863571989</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0856630901164347</v>
+        <v>0.0855007428531531</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.929253208740426</v>
+        <v>-0.883186319057977</v>
       </c>
       <c r="M27" t="n">
-        <v>0.373767482339893</v>
+        <v>0.397088850439362</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
@@ -2327,40 +2327,40 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.135395710001158</v>
+        <v>-0.133978745474261</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0368383362311461</v>
+        <v>0.0354521476887659</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.67540241642846</v>
+        <v>-3.77914327364478</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00531714013546596</v>
+        <v>0.00482523833248853</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.121215211421463</v>
+        <v>-0.124722083179914</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0335945660247217</v>
+        <v>0.0331067739016527</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.60817911242738</v>
+        <v>-3.76726779692925</v>
       </c>
       <c r="I28" t="n">
-        <v>0.00602825548503319</v>
+        <v>0.00504205218937793</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.124419095676964</v>
+        <v>-0.129637044266528</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0382975584479551</v>
+        <v>0.0368336451003934</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.24874745856304</v>
+        <v>-3.51952797267798</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0105391060053032</v>
+        <v>0.00730456331181071</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -2380,40 +2380,40 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.141242422942388</v>
+        <v>-0.141706757562063</v>
       </c>
       <c r="C29" t="n">
-        <v>0.196501453207132</v>
+        <v>0.201290737260586</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.71878564070213</v>
+        <v>-0.703990454258276</v>
       </c>
       <c r="E29" t="n">
-        <v>0.564338278464229</v>
+        <v>0.571921102362629</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.115876772979047</v>
+        <v>-0.110856257039908</v>
       </c>
       <c r="G29" t="n">
-        <v>0.208721237056246</v>
+        <v>0.207644072051943</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.555174809297537</v>
+        <v>-0.533876339181871</v>
       </c>
       <c r="I29" t="n">
-        <v>0.648313596749374</v>
+        <v>0.659917955659709</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.103978961218083</v>
+        <v>-0.0976900284260015</v>
       </c>
       <c r="K29" t="n">
-        <v>0.211804189768385</v>
+        <v>0.210291818750349</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.490920228404299</v>
+        <v>-0.464545073633965</v>
       </c>
       <c r="M29" t="n">
-        <v>0.684200620961757</v>
+        <v>0.699302253729195</v>
       </c>
       <c r="N29"/>
       <c r="O29"/>
@@ -2433,40 +2433,40 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.100432677653548</v>
+        <v>-0.100207680598556</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0276592943733578</v>
+        <v>0.0241298060953741</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.63106434668439</v>
+        <v>-4.15285892486995</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00242372210647855</v>
+        <v>0.000833693648638827</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.124742131376631</v>
+        <v>-0.124176382196076</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0304811466554968</v>
+        <v>0.0302808088704361</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.09243565494724</v>
+        <v>-4.10082777931708</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000939284204107471</v>
+        <v>0.000923419373718214</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.129489662256787</v>
+        <v>-0.12898233903257</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0386404750740167</v>
+        <v>0.0383737451204796</v>
       </c>
       <c r="L30" t="n">
-        <v>-3.35114053356609</v>
+        <v>-3.36121321042844</v>
       </c>
       <c r="M30" t="n">
-        <v>0.00432562421481555</v>
+        <v>0.00423699057070018</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2486,40 +2486,40 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0714358075366026</v>
+        <v>-0.074397128684255</v>
       </c>
       <c r="C31" t="n">
-        <v>0.024083232734</v>
+        <v>0.0260842576718059</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.96620509072071</v>
+        <v>-2.85218500830368</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0110821829781818</v>
+        <v>0.0137750432730592</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0812526097818137</v>
+        <v>-0.0834994657792398</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0260661264087082</v>
+        <v>0.0254574283812728</v>
       </c>
       <c r="H31" t="n">
-        <v>-3.11717239868325</v>
+        <v>-3.2799646739128</v>
       </c>
       <c r="I31" t="n">
-        <v>0.00830591846018408</v>
+        <v>0.00608905118832989</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.114806624721095</v>
+        <v>-0.11724525249082</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0362718826451501</v>
+        <v>0.0359509046366676</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.16516861956836</v>
+        <v>-3.26126014562752</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0075672603762735</v>
+        <v>0.00630123776895843</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
@@ -2539,40 +2539,40 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>0.00868295083423981</v>
+        <v>-0.0179086370568567</v>
       </c>
       <c r="C32" t="n">
-        <v>0.103996531651496</v>
+        <v>0.12078119581384</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0834926963077704</v>
+        <v>-0.148273387559925</v>
       </c>
       <c r="E32" t="n">
-        <v>0.940244122104474</v>
+        <v>0.894242171415072</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.039010660714214</v>
+        <v>-0.0386041040131227</v>
       </c>
       <c r="G32" t="n">
-        <v>0.120361201031903</v>
+        <v>0.1206329561241</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.324113255598652</v>
+        <v>-0.320012915653074</v>
       </c>
       <c r="I32" t="n">
-        <v>0.773511746537046</v>
+        <v>0.776240700788529</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0237177122011936</v>
+        <v>-0.0249629268394769</v>
       </c>
       <c r="K32" t="n">
-        <v>0.049601701552905</v>
+        <v>0.0500788984421327</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.478163277844338</v>
+        <v>-0.498471963562101</v>
       </c>
       <c r="M32" t="n">
-        <v>0.681730298272019</v>
+        <v>0.669692083141968</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
@@ -2592,40 +2592,40 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.0682559697095132</v>
+        <v>-0.0447473477007656</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0564811915560276</v>
+        <v>0.0563403721249598</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.2084725521735</v>
+        <v>-0.794232377477353</v>
       </c>
       <c r="E33" t="n">
-        <v>0.262158856283026</v>
+        <v>0.450551364624079</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.0927020457334988</v>
+        <v>-0.0891147649458146</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0572286681279484</v>
+        <v>0.057546185870721</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.61985327923832</v>
+        <v>-1.54857813072118</v>
       </c>
       <c r="I33" t="n">
-        <v>0.146007088191026</v>
+        <v>0.161997077668497</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0440310802720275</v>
+        <v>-0.0392849418827011</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0648310521200114</v>
+        <v>0.0652744994774341</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.679166523327738</v>
+        <v>-0.601842100624337</v>
       </c>
       <c r="M33" t="n">
-        <v>0.517736845292925</v>
+        <v>0.565213598566131</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -2645,40 +2645,40 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.0874291770689289</v>
+        <v>-0.094270009954612</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0285326195350761</v>
+        <v>0.0233485928941462</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.06418332748766</v>
+        <v>-4.03750283291147</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0198581301254175</v>
+        <v>0.00574173756346435</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0668803879695688</v>
+        <v>-0.0658938776653298</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0305812121475926</v>
+        <v>0.0307046502231931</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.1869763581243</v>
+        <v>-2.14605531039582</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0673956289941057</v>
+        <v>0.071910332274278</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0907883601217641</v>
+        <v>-0.0889420587555716</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0476235985634443</v>
+        <v>0.0477034389976704</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.90637337077364</v>
+        <v>-1.86447896890442</v>
       </c>
       <c r="M34" t="n">
-        <v>0.101529184642517</v>
+        <v>0.108239193960291</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -2698,40 +2698,40 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.120527811940356</v>
+        <v>-0.116051887583236</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0475972935015042</v>
+        <v>0.0463706807043698</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.53224087072403</v>
+        <v>-2.50269967618352</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0224566135470774</v>
+        <v>0.0239254901169165</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.142842334425122</v>
+        <v>-0.141785441268686</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0445342335233562</v>
+        <v>0.0442249366953392</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.2074726143026</v>
+        <v>-3.20600665288525</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0054914806661217</v>
+        <v>0.00551743349082206</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.118381070202051</v>
+        <v>-0.116753997419382</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0483330674156059</v>
+        <v>0.0478923699487857</v>
       </c>
       <c r="L35" t="n">
-        <v>-2.44927699672188</v>
+        <v>-2.43784130007001</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0271230010509406</v>
+        <v>0.0277497769217896</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -2751,40 +2751,40 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>0.00516089304714887</v>
+        <v>0.00188345262812793</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0645765237992745</v>
+        <v>0.0645654673330066</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0799190285186402</v>
+        <v>0.0291712072401448</v>
       </c>
       <c r="E36" t="n">
-        <v>0.938495474680511</v>
+        <v>0.977529074107264</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.0402226297643644</v>
+        <v>-0.0355550781861411</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0869206368033251</v>
+        <v>0.0881886579576326</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.462751208960606</v>
+        <v>-0.403170645858137</v>
       </c>
       <c r="I36" t="n">
-        <v>0.657661095011367</v>
+        <v>0.698813290185855</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0496848341584597</v>
+        <v>0.0554630192755981</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0878017144965599</v>
+        <v>0.0894297800316212</v>
       </c>
       <c r="L36" t="n">
-        <v>0.565875443815011</v>
+        <v>0.620185124641782</v>
       </c>
       <c r="M36" t="n">
-        <v>0.590251651941832</v>
+        <v>0.555828049980281</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -2804,40 +2804,40 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0196803589201693</v>
+        <v>-0.0391248247693395</v>
       </c>
       <c r="C37" t="n">
-        <v>0.150710867755585</v>
+        <v>0.150605150990689</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.130583541938633</v>
+        <v>-0.259784107727885</v>
       </c>
       <c r="E37" t="n">
-        <v>0.898336496652543</v>
+        <v>0.799545007554951</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0357519320810626</v>
+        <v>0.0328207381819786</v>
       </c>
       <c r="G37" t="n">
-        <v>0.147180523494637</v>
+        <v>0.144429160719982</v>
       </c>
       <c r="H37" t="n">
-        <v>0.242912113859722</v>
+        <v>0.227244539941703</v>
       </c>
       <c r="I37" t="n">
-        <v>0.812557066485178</v>
+        <v>0.82441930413716</v>
       </c>
       <c r="J37" t="n">
-        <v>0.129621781658991</v>
+        <v>0.125738107830748</v>
       </c>
       <c r="K37" t="n">
-        <v>0.15584975718377</v>
+        <v>0.152602443720071</v>
       </c>
       <c r="L37" t="n">
-        <v>0.831709872387851</v>
+        <v>0.823958678285633</v>
       </c>
       <c r="M37" t="n">
-        <v>0.42410027323897</v>
+        <v>0.428348956407248</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -2857,40 +2857,40 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>0.225875589337554</v>
+        <v>0.242422791760949</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138809533999744</v>
+        <v>0.149465690418441</v>
       </c>
       <c r="D38" t="n">
-        <v>1.62723397182481</v>
+        <v>1.62192936106118</v>
       </c>
       <c r="E38" t="n">
-        <v>0.210995777579315</v>
+        <v>0.210535815949125</v>
       </c>
       <c r="F38" t="n">
-        <v>0.52060730502121</v>
+        <v>0.523770124510843</v>
       </c>
       <c r="G38" t="n">
-        <v>0.198392473668915</v>
+        <v>0.200716071282856</v>
       </c>
       <c r="H38" t="n">
-        <v>2.62412830181259</v>
+        <v>2.60950765508322</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0955247373916641</v>
+        <v>0.0964224962151562</v>
       </c>
       <c r="J38" t="n">
-        <v>0.59944351172786</v>
+        <v>0.603574755170635</v>
       </c>
       <c r="K38" t="n">
-        <v>0.137730011724003</v>
+        <v>0.140378063562112</v>
       </c>
       <c r="L38" t="n">
-        <v>4.35230857984012</v>
+        <v>4.29963727846677</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0342178320802268</v>
+        <v>0.0350454329379503</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -2910,40 +2910,40 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>0.396930952968965</v>
+        <v>0.408607328184208</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0360479287158169</v>
+        <v>0.0347070762370814</v>
       </c>
       <c r="D39" t="n">
-        <v>11.0112000081381</v>
+        <v>11.7730264973357</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00439339531744062</v>
+        <v>0.00362535579887727</v>
       </c>
       <c r="F39" t="n">
-        <v>0.352832919953361</v>
+        <v>0.35338523065181</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0539174856564981</v>
+        <v>0.055171579119126</v>
       </c>
       <c r="H39" t="n">
-        <v>6.54394239006652</v>
+        <v>6.4052042064771</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0162041176941913</v>
+        <v>0.016969511659237</v>
       </c>
       <c r="J39" t="n">
-        <v>0.357007065387941</v>
+        <v>0.357038416094967</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0622946268269837</v>
+        <v>0.0636276671842467</v>
       </c>
       <c r="L39" t="n">
-        <v>5.73094476317335</v>
+        <v>5.61137052315765</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0215709495929252</v>
+        <v>0.0225622068693846</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -2963,40 +2963,40 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>0.624187152491535</v>
+        <v>0.630122782672917</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0520974497427656</v>
+        <v>0.0518648656744356</v>
       </c>
       <c r="D40" t="n">
-        <v>11.9811460171947</v>
+        <v>12.1493187050421</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00057223203500108</v>
+        <v>0.00051060462823688</v>
       </c>
       <c r="F40" t="n">
-        <v>0.587125180805947</v>
+        <v>0.587193595365284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0746450572331381</v>
+        <v>0.0754637958844846</v>
       </c>
       <c r="H40" t="n">
-        <v>7.86556005941807</v>
+        <v>7.78112985813918</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00287734290769172</v>
+        <v>0.002927273032098</v>
       </c>
       <c r="J40" t="n">
-        <v>0.607615872746402</v>
+        <v>0.607972988584232</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0863341360663019</v>
+        <v>0.0879885304057641</v>
       </c>
       <c r="L40" t="n">
-        <v>7.03795625266664</v>
+        <v>6.90968454388919</v>
       </c>
       <c r="M40" t="n">
-        <v>0.00423891904843942</v>
+        <v>0.00442621939114473</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -3016,40 +3016,40 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>0.628031206010419</v>
+        <v>0.638549155045028</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0585977485302124</v>
+        <v>0.0621407404934607</v>
       </c>
       <c r="D41" t="n">
-        <v>10.7176678586313</v>
+        <v>10.2758536505085</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0000261599651165438</v>
+        <v>0.00003249265486439</v>
       </c>
       <c r="F41" t="n">
-        <v>0.587466172647452</v>
+        <v>0.588759306198064</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0873278346363988</v>
+        <v>0.0890883794296028</v>
       </c>
       <c r="H41" t="n">
-        <v>6.72713545564764</v>
+        <v>6.60871047343833</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000463724617808941</v>
+        <v>0.000507284513743361</v>
       </c>
       <c r="J41" t="n">
-        <v>0.598891354167479</v>
+        <v>0.600370123632559</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0987259133044545</v>
+        <v>0.101082038505468</v>
       </c>
       <c r="L41" t="n">
-        <v>6.06620221704707</v>
+        <v>5.93943427051172</v>
       </c>
       <c r="M41" t="n">
-        <v>0.000826852941083561</v>
+        <v>0.000920241977739678</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -3069,40 +3069,40 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>0.650240649848825</v>
+        <v>0.657537729911562</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0474498359276733</v>
+        <v>0.0491342758961082</v>
       </c>
       <c r="D42" t="n">
-        <v>13.7037491729154</v>
+        <v>13.3824650494879</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0000214944193218265</v>
+        <v>0.0000235163172896176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.615596657720389</v>
+        <v>0.615825940605714</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0750208354707808</v>
+        <v>0.0761238151358747</v>
       </c>
       <c r="H42" t="n">
-        <v>8.20567584801361</v>
+        <v>8.08979344383247</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000370775370606803</v>
+        <v>0.00039343887426625</v>
       </c>
       <c r="J42" t="n">
-        <v>0.620891835953961</v>
+        <v>0.620867468242027</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0879962086974659</v>
+        <v>0.0895222220843181</v>
       </c>
       <c r="L42" t="n">
-        <v>7.05589303385342</v>
+        <v>6.93534469751267</v>
       </c>
       <c r="M42" t="n">
-        <v>0.000799456621388845</v>
+        <v>0.000860224330447681</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -3122,40 +3122,40 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>0.593321636304612</v>
+        <v>0.605309079423922</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0411601008528327</v>
+        <v>0.0482941192046902</v>
       </c>
       <c r="D43" t="n">
-        <v>14.4149704206514</v>
+        <v>12.5338051380205</v>
       </c>
       <c r="E43" t="n">
-        <v>0.000000229634735398797</v>
+        <v>0.000000741119755418709</v>
       </c>
       <c r="F43" t="n">
-        <v>0.54611104443262</v>
+        <v>0.547982584458141</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0812033935761414</v>
+        <v>0.0829481546888635</v>
       </c>
       <c r="H43" t="n">
-        <v>6.7252244072848</v>
+        <v>6.60632640368685</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000113822553005262</v>
+        <v>0.000128486697956472</v>
       </c>
       <c r="J43" t="n">
-        <v>0.544838302479767</v>
+        <v>0.546850255560341</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0961112476394334</v>
+        <v>0.0983302461454261</v>
       </c>
       <c r="L43" t="n">
-        <v>5.66882977654975</v>
+        <v>5.56136363933814</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00039155201628905</v>
+        <v>0.000443481727493624</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -3175,40 +3175,40 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0000289358287898334</v>
+        <v>0.00000403887212738514</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000142904800908456</v>
+        <v>0.000142473491862056</v>
       </c>
       <c r="D44" t="n">
-        <v>0.202483251828394</v>
+        <v>0.0283482356935255</v>
       </c>
       <c r="E44" t="n">
-        <v>0.844017543463364</v>
+        <v>0.977999713040412</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000132397300088108</v>
+        <v>0.000142636162499181</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00015422575350898</v>
+        <v>0.000150858511177591</v>
       </c>
       <c r="H44" t="n">
-        <v>0.858464277695354</v>
+        <v>0.945496289110728</v>
       </c>
       <c r="I44" t="n">
-        <v>0.413345677338524</v>
+        <v>0.369557091617099</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.000137307031064199</v>
+        <v>-0.0001245690876513</v>
       </c>
       <c r="K44" t="n">
-        <v>0.000257246381402726</v>
+        <v>0.000253389372062752</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.533756899962924</v>
+        <v>-0.491611335697417</v>
       </c>
       <c r="M44" t="n">
-        <v>0.607065552033281</v>
+        <v>0.635317453582563</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -3228,40 +3228,40 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0026975884988323</v>
+        <v>0.00271290401391287</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00430778335099728</v>
+        <v>0.00442881339842759</v>
       </c>
       <c r="D45" t="n">
-        <v>0.626212666476785</v>
+        <v>0.612557759799964</v>
       </c>
       <c r="E45" t="n">
-        <v>0.539754422123512</v>
+        <v>0.548527513840926</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.00329690128547038</v>
+        <v>-0.00242431006387328</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00463247048433576</v>
+        <v>0.00445354219172934</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.711693964725415</v>
+        <v>-0.544355472454141</v>
       </c>
       <c r="I45" t="n">
-        <v>0.486613352703238</v>
+        <v>0.593490633266188</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0119717418935372</v>
+        <v>-0.0109708542650427</v>
       </c>
       <c r="K45" t="n">
-        <v>0.00618603886106266</v>
+        <v>0.00613784936763943</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.93528397774737</v>
+        <v>-1.78741015100246</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0702870740553939</v>
+        <v>0.092255128786812</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -3281,40 +3281,40 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>0.00941739506622163</v>
+        <v>0.00334686560434135</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00520167381232286</v>
+        <v>0.00233019613870859</v>
       </c>
       <c r="D46" t="n">
-        <v>1.81045475091338</v>
+        <v>1.43630209867063</v>
       </c>
       <c r="E46" t="n">
-        <v>0.162588729143957</v>
+        <v>0.238001057403457</v>
       </c>
       <c r="F46" t="n">
-        <v>0.014762030985806</v>
+        <v>0.0105181007010106</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00379152523297551</v>
+        <v>0.00385904361565796</v>
       </c>
       <c r="H46" t="n">
-        <v>3.89342812687048</v>
+        <v>2.72557186405817</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0277175286168423</v>
+        <v>0.0654357758670905</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0203376401620181</v>
+        <v>0.0153130593443016</v>
       </c>
       <c r="K46" t="n">
-        <v>0.00277804721005124</v>
+        <v>0.00231693757292333</v>
       </c>
       <c r="L46" t="n">
-        <v>7.32084036888738</v>
+        <v>6.60918080972755</v>
       </c>
       <c r="M46" t="n">
-        <v>0.00447086745558216</v>
+        <v>0.00523998834815388</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -3334,28 +3334,28 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.00506376782593477</v>
+        <v>-0.00517500591611341</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00723752114177667</v>
+        <v>0.00710709184081542</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.699654996060118</v>
+        <v>-0.728146762701699</v>
       </c>
       <c r="E47" t="n">
-        <v>0.501305867543008</v>
+        <v>0.484602616030662</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.00898570603533074</v>
+        <v>-0.00874858193967026</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0095773781407705</v>
+        <v>0.0095633436943417</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.938221912433316</v>
+        <v>-0.914803673201298</v>
       </c>
       <c r="I47" t="n">
-        <v>0.371517212548135</v>
+        <v>0.383078982261738</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -3379,28 +3379,28 @@
         <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.0477660081723407</v>
+        <v>-0.055647141281049</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0320356777710566</v>
+        <v>0.0322362382512921</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.4910253659592</v>
+        <v>-1.72622937103459</v>
       </c>
       <c r="E48" t="n">
-        <v>0.158919120219076</v>
+        <v>0.107174599422883</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0332564292825705</v>
+        <v>-0.0355836369677184</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0378629712371925</v>
+        <v>0.0372703368607687</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.878336490663546</v>
+        <v>-0.954744173648032</v>
       </c>
       <c r="I48" t="n">
-        <v>0.395159506039728</v>
+        <v>0.356603886560485</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -3424,28 +3424,28 @@
         <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.00965187418270705</v>
+        <v>-0.00850083333593829</v>
       </c>
       <c r="C49" t="n">
-        <v>0.00811748221963209</v>
+        <v>0.00835299340666677</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.18902313815533</v>
+        <v>-1.01769903579159</v>
       </c>
       <c r="E49" t="n">
-        <v>0.26155891810225</v>
+        <v>0.332303711806271</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.00612122887710095</v>
+        <v>-0.00585680165835267</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00957045335633926</v>
+        <v>0.00954442772168712</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.639596542523911</v>
+        <v>-0.613635707570469</v>
       </c>
       <c r="I49" t="n">
-        <v>0.53808399490796</v>
+        <v>0.554379207308233</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -3469,28 +3469,28 @@
         <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.00655901734791795</v>
+        <v>-0.00702466463209921</v>
       </c>
       <c r="C50" t="n">
-        <v>0.00621769957056091</v>
+        <v>0.00626785703607644</v>
       </c>
       <c r="D50" t="n">
-        <v>-1.05489454314793</v>
+        <v>-1.12074423390112</v>
       </c>
       <c r="E50" t="n">
-        <v>0.309000313792152</v>
+        <v>0.280897027094083</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.00539818344798389</v>
+        <v>-0.00535520119284443</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00816815832556655</v>
+        <v>0.00817919942165448</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.660881343483197</v>
+        <v>-0.654734151445985</v>
       </c>
       <c r="I50" t="n">
-        <v>0.519456578404255</v>
+        <v>0.523308880340958</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -3514,28 +3514,28 @@
         <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00140743102736267</v>
+        <v>-0.00127323073443998</v>
       </c>
       <c r="C51" t="n">
-        <v>0.00174156961772917</v>
+        <v>0.0015229270612078</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.808139400822701</v>
+        <v>-0.836041834748285</v>
       </c>
       <c r="E51" t="n">
-        <v>0.558033297927443</v>
+        <v>0.547339568165121</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.000662635172772283</v>
+        <v>-0.000655052261136138</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0055170870635955</v>
+        <v>0.00560251367093152</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.120105984396128</v>
+        <v>-0.116921135692155</v>
       </c>
       <c r="I51" t="n">
-        <v>0.922666478853946</v>
+        <v>0.924698638286826</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -3559,28 +3559,28 @@
         <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0178270957641657</v>
+        <v>0.0184050510467514</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0132338403152887</v>
+        <v>0.0132837296306737</v>
       </c>
       <c r="D52" t="n">
-        <v>1.34708409195255</v>
+        <v>1.38553339750697</v>
       </c>
       <c r="E52" t="n">
-        <v>0.20201289322389</v>
+        <v>0.190452604570735</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0238335843736443</v>
+        <v>0.0230650381452688</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0145556224853098</v>
+        <v>0.0145342555719752</v>
       </c>
       <c r="H52" t="n">
-        <v>1.63741429799367</v>
+        <v>1.58694320676063</v>
       </c>
       <c r="I52" t="n">
-        <v>0.126239900344791</v>
+        <v>0.137215085200518</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -3604,28 +3604,28 @@
         <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00917112232299327</v>
+        <v>0.00875103135470041</v>
       </c>
       <c r="C53" t="n">
-        <v>0.013595895180814</v>
+        <v>0.0121348514421548</v>
       </c>
       <c r="D53" t="n">
-        <v>0.674550825894508</v>
+        <v>0.721148618622604</v>
       </c>
       <c r="E53" t="n">
-        <v>0.510225310001936</v>
+        <v>0.4819143972567</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0149409100511941</v>
+        <v>0.0155424713472888</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01707332384632</v>
+        <v>0.0171507559172309</v>
       </c>
       <c r="H53" t="n">
-        <v>0.875102597811645</v>
+        <v>0.906226607287537</v>
       </c>
       <c r="I53" t="n">
-        <v>0.395241271975855</v>
+        <v>0.379046718689801</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -3649,28 +3649,28 @@
         <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>0.00000413687128704698</v>
+        <v>0.00000476967739594562</v>
       </c>
       <c r="C54" t="n">
-        <v>0.00000540388170483615</v>
+        <v>0.00000547899822054111</v>
       </c>
       <c r="D54" t="n">
-        <v>0.765536981193487</v>
+        <v>0.870538226872168</v>
       </c>
       <c r="E54" t="n">
-        <v>0.458994642238362</v>
+        <v>0.40127638689801</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00000463316298687328</v>
+        <v>0.00000453032124940568</v>
       </c>
       <c r="G54" t="n">
-        <v>0.00000650294953170394</v>
+        <v>0.00000650627599133779</v>
       </c>
       <c r="H54" t="n">
-        <v>0.712471004777929</v>
+        <v>0.696300196216266</v>
       </c>
       <c r="I54" t="n">
-        <v>0.491129486707299</v>
+        <v>0.500821721192307</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -3694,28 +3694,28 @@
         <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0000128379187415435</v>
+        <v>0.0000129676315070935</v>
       </c>
       <c r="C55" t="n">
-        <v>0.00000261055186312025</v>
+        <v>0.00000271680297708411</v>
       </c>
       <c r="D55" t="n">
-        <v>4.9177030048348</v>
+        <v>4.77312179663887</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000180174717470814</v>
+        <v>0.000238361870474816</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0000145261491977137</v>
+        <v>0.0000145470271275458</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00000357729655367707</v>
+        <v>0.00000359086014389871</v>
       </c>
       <c r="H55" t="n">
-        <v>4.0606499851913</v>
+        <v>4.05112606578758</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00118147578116644</v>
+        <v>0.00120428670711552</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -3739,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.569861662322121</v>
+        <v>-0.481449696900955</v>
       </c>
       <c r="C56" t="n">
-        <v>0.286248811231257</v>
+        <v>0.173178235912867</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.99079136738052</v>
+        <v>-2.780082002586</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0762156349698376</v>
+        <v>0.0277532294095023</v>
       </c>
       <c r="F56"/>
       <c r="G56"/>
@@ -3776,16 +3776,16 @@
         <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.200723244968583</v>
+        <v>-0.140355165345535</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0592903474672948</v>
+        <v>0.0601237665100454</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.38542871720062</v>
+        <v>-2.33443733639151</v>
       </c>
       <c r="E57" t="n">
-        <v>0.00451917671137313</v>
+        <v>0.0366297114791482</v>
       </c>
       <c r="F57"/>
       <c r="G57"/>
@@ -3813,16 +3813,16 @@
         <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.389170438632799</v>
+        <v>-0.396019620539022</v>
       </c>
       <c r="C58" t="n">
-        <v>0.138942209799971</v>
+        <v>0.146374970730123</v>
       </c>
       <c r="D58" t="n">
-        <v>-2.8009518431661</v>
+        <v>-2.70551460105278</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0142540321008198</v>
+        <v>0.0165350548521122</v>
       </c>
       <c r="F58"/>
       <c r="G58"/>
@@ -3850,16 +3850,16 @@
         <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>0.274487246233925</v>
+        <v>0.302422210778769</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0800543453272289</v>
+        <v>0.0858985685128793</v>
       </c>
       <c r="D59" t="n">
-        <v>3.42876136344549</v>
+        <v>3.52068976252409</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00340285651880908</v>
+        <v>0.00301811913782489</v>
       </c>
       <c r="F59"/>
       <c r="G59"/>
@@ -3887,16 +3887,16 @@
         <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.632362454540782</v>
+        <v>-0.665033319291968</v>
       </c>
       <c r="C60" t="n">
-        <v>0.119144991285324</v>
+        <v>0.0926845388943302</v>
       </c>
       <c r="D60" t="n">
-        <v>-5.30750346883172</v>
+        <v>-7.17523469637341</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000789184621785256</v>
+        <v>0.000149617202537518</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
